--- a/src/main/resources/DependencyTests.xlsx
+++ b/src/main/resources/DependencyTests.xlsx
@@ -983,7 +983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -993,7 +993,7 @@
     <col min="3" max="3" width="31.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
